--- a/2025-03-03_4o-mini_feedback_sheets/overall_gen/Esophageal adenocarcinoma_gen_overall.xlsx
+++ b/2025-03-03_4o-mini_feedback_sheets/overall_gen/Esophageal adenocarcinoma_gen_overall.xlsx
@@ -462,22 +462,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Progressive dysphagia (difficulty swallowing)</t>
+          <t>Progressive dysphagia, initially to solids and later to liquids</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Progressive dysphagia is a common symptom in patients with esophageal adenocarcinoma, indicating obstruction or infiltration of the esophagus.</t>
+          <t>Progressive dysphagia is a classic symptom of esophageal adenocarcinoma due to tumor growth obstructing the esophagus.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Recent onset of symptoms</t>
+          <t>Absence of dysphagia</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A very recent onset of symptoms is less typical for esophageal adenocarcinoma, which usually presents with chronic symptoms.</t>
+          <t>The absence of dysphagia makes esophageal adenocarcinoma less likely, as dysphagia is a common symptom.</t>
         </is>
       </c>
     </row>
@@ -489,17 +489,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Unintentional weight loss is frequently observed in patients with esophageal adenocarcinoma due to difficulty eating and malnutrition.</t>
+          <t>Weight loss is common in esophageal adenocarcinoma due to difficulty swallowing and decreased caloric intake.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>No history of smoking or alcohol use</t>
+          <t>No history of GERD</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Absence of smoking and significant alcohol use, which are major risk factors, makes esophageal adenocarcinoma less likely.</t>
+          <t>Without a history of GERD, the likelihood of esophageal adenocarcinoma decreases, as GERD is a significant risk factor.</t>
         </is>
       </c>
     </row>
@@ -511,61 +511,61 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>A long history of GERD is a significant risk factor for developing esophageal adenocarcinoma, making it a relevant symptom.</t>
+          <t>Chronic GERD is a known risk factor for esophageal adenocarcinoma, often leading to Barrett's esophagus, a precursor condition.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Normal appetite</t>
+          <t>Stable weight</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A normal appetite contradicts the common symptom of weight loss and suggests that malignancy is less likely.</t>
+          <t>Maintaining stable weight suggests adequate nutrition and less likelihood of esophageal obstruction from a tumor.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Odynophagia (painful swallowing)</t>
+          <t>Odynophagia</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Odynophagia can indicate esophageal involvement by a tumor, which is characteristic of esophageal adenocarcinoma.</t>
+          <t>Painful swallowing (odynophagia) can occur due to ulceration or tumor invasion in esophageal adenocarcinoma.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No family history of esophageal cancer</t>
+          <t>No odynophagia</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Lack of family history reduces the likelihood of genetic predisposition to esophageal adenocarcinoma.</t>
+          <t>The absence of painful swallowing reduces the likelihood of esophageal adenocarcinoma, which often causes this symptom.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Anemia</t>
+          <t>History of Barrett's esophagus</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Anemia can occur due to chronic blood loss from the tumor or nutritional deficiencies, which is often seen in esophageal adenocarcinoma patients.</t>
+          <t>Barrett's esophagus is a precancerous condition that significantly increases the risk of developing esophageal adenocarcinoma.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Recent negative endoscopy</t>
+          <t>No history of Barrett's esophagus</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A recent negative endoscopy suggests that there are no significant lesions in the esophagus, making esophageal adenocarcinoma unlikely.</t>
+          <t>Without Barrett's esophagus, the risk of developing esophageal adenocarcinoma is lower.</t>
         </is>
       </c>
     </row>
@@ -613,66 +613,66 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>History of gastroesophageal reflux disease (GERD)</t>
+          <t>Barrett's esophagus</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GERD is a significant risk factor for the development of esophageal adenocarcinoma due to chronic irritation and inflammation of the esophageal lining.</t>
+          <t>Barrett's esophagus is a known precursor to esophageal adenocarcinoma, significantly increasing the risk of developing this cancer.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>No history of significant weight loss</t>
+          <t>No history of Barrett's esophagus</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Significant weight loss is often associated with esophageal adenocarcinoma due to difficulty swallowing and decreased appetite; its absence suggests a lower likelihood of the disease.</t>
+          <t>The absence of Barrett's esophagus significantly reduces the likelihood of esophageal adenocarcinoma.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>History of Barrett's esophagus</t>
+          <t>Chronic gastroesophageal reflux disease</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Barrett's esophagus is a precancerous condition that significantly increases the risk of developing esophageal adenocarcinoma.</t>
+          <t>Chronic GERD can lead to Barrett's esophagus, which is a major risk factor for esophageal adenocarcinoma.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>No history of chronic cough</t>
+          <t>No history of GERD</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Chronic cough is not typically associated with esophageal adenocarcinoma and its absence may indicate that the esophagus is not involved in a malignancy.</t>
+          <t>Without GERD, the risk of developing Barrett's esophagus and subsequently esophageal adenocarcinoma is lower.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>History of obesity</t>
+          <t>Obesity</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Obesity is associated with an increased risk of esophageal adenocarcinoma, likely due to increased intra-abdominal pressure and subsequent reflux.</t>
+          <t>Obesity is associated with an increased risk of esophageal adenocarcinoma due to its link with GERD and Barrett's esophagus.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No history of anemia</t>
+          <t>Normal weight</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Anemia can be a sign of chronic disease or malignancy; its absence may suggest that there is no underlying cancer such as esophageal adenocarcinoma.</t>
+          <t>Being of normal weight reduces the risk of GERD and Barrett's esophagus, thereby lowering the risk of esophageal adenocarcinoma.</t>
         </is>
       </c>
     </row>
@@ -684,39 +684,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Smoking is a known risk factor for various cancers, including esophageal adenocarcinoma, due to carcinogenic substances in tobacco.</t>
+          <t>Smoking is a risk factor for many cancers, including esophageal adenocarcinoma, due to its carcinogenic effects.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No history of gastrointestinal bleeding</t>
+          <t>No history of smoking</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Gastrointestinal bleeding can be a symptom of esophageal adenocarcinoma; its absence may indicate a lower likelihood of the disease.</t>
+          <t>Non-smokers have a lower risk of developing esophageal adenocarcinoma compared to smokers.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>History of dysphagia (difficulty swallowing)</t>
+          <t>Male gender</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dysphagia can be a symptom of esophageal adenocarcinoma, indicating possible obstruction or invasion of the esophagus.</t>
+          <t>Esophageal adenocarcinoma is more common in males, making male gender a risk factor.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No prior surgeries related to the esophagus</t>
+          <t>Female gender</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Prior surgeries on the esophagus may indicate previous conditions that could lead to esophageal adenocarcinoma; their absence suggests a lower risk.</t>
+          <t>Esophageal adenocarcinoma is less common in females, making female gender a protective factor.</t>
         </is>
       </c>
     </row>
@@ -764,22 +764,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>History of smoking</t>
+          <t>History of gastroesophageal reflux disease (GERD)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Smoking is a well-established risk factor for esophageal adenocarcinoma, significantly increasing the likelihood of developing the disease.</t>
+          <t>Chronic GERD is a significant risk factor for esophageal adenocarcinoma due to the potential for Barrett's esophagus development.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>No history of smoking</t>
+          <t>No history of gastroesophageal reflux disease (GERD)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A lack of smoking history significantly reduces the risk of developing esophageal adenocarcinoma, as smoking is a major risk factor.</t>
+          <t>Absence of GERD reduces the likelihood of esophageal adenocarcinoma as GERD is a major risk factor.</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Obesity is associated with an increased risk of esophageal adenocarcinoma, particularly due to gastroesophageal reflux disease (GERD) which is more prevalent in obese individuals.</t>
+          <t>Obesity is associated with an increased risk of esophageal adenocarcinoma, likely due to increased intra-abdominal pressure leading to reflux.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -801,73 +801,73 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Maintaining a normal body weight decreases the risk of obesity-related conditions, including esophageal adenocarcinoma.</t>
+          <t>Maintaining a normal body weight is associated with a lower risk of esophageal adenocarcinoma compared to obesity.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Chronic gastroesophageal reflux disease (GERD)</t>
+          <t>Family history of esophageal adenocarcinoma</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chronic GERD is a significant risk factor for the development of Barrett's esophagus, which can progress to esophageal adenocarcinoma.</t>
+          <t>A family history of esophageal adenocarcinoma suggests a genetic predisposition to the disease.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No history of GERD</t>
+          <t>No family history of esophageal adenocarcinoma</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Absence of GERD symptoms suggests a lower risk for Barrett's esophagus and subsequently esophageal adenocarcinoma.</t>
+          <t>Lack of family history reduces the likelihood of a genetic predisposition to esophageal adenocarcinoma.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Family history of esophageal cancer</t>
+          <t>Smoking history</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>A family history of esophageal cancer increases the risk of developing esophageal adenocarcinoma, indicating a potential genetic predisposition.</t>
+          <t>Smoking is a known risk factor for esophageal adenocarcinoma, contributing to mucosal damage and carcinogenesis.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No family history of cancer</t>
+          <t>Non-smoker</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A lack of family history of esophageal cancer suggests a lower genetic predisposition to developing esophageal adenocarcinoma.</t>
+          <t>Not smoking significantly reduces the risk of developing esophageal adenocarcinoma.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>High alcohol consumption</t>
+          <t>Low fruit and vegetable intake</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>High levels of alcohol consumption are linked to an increased risk of esophageal adenocarcinoma, particularly when combined with smoking.</t>
+          <t>A diet low in fruits and vegetables is associated with an increased risk of esophageal adenocarcinoma due to reduced intake of protective nutrients.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Moderate or low alcohol consumption</t>
+          <t>High fruit and vegetable intake</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Moderate or low alcohol intake is associated with a reduced risk of esophageal adenocarcinoma compared to high consumption levels.</t>
+          <t>A diet rich in fruits and vegetables is protective against esophageal adenocarcinoma due to the presence of beneficial nutrients.</t>
         </is>
       </c>
     </row>
@@ -915,44 +915,44 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Weight loss</t>
+          <t>Unintentional weight loss</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Unintentional weight loss is a common finding in patients with esophageal adenocarcinoma due to difficulty swallowing and decreased appetite.</t>
+          <t>Unintentional weight loss is a common finding in patients with esophageal adenocarcinoma due to difficulty swallowing and decreased nutritional intake.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal vital signs</t>
+          <t>Normal weight</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Normal vital signs may suggest the absence of significant systemic disease, making esophageal adenocarcinoma less likely.</t>
+          <t>Maintaining a normal weight is less common in patients with esophageal adenocarcinoma, who often experience weight loss.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Dysphagia (difficulty swallowing)</t>
+          <t>Palpable supraclavicular lymph nodes</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dysphagia is a hallmark symptom of esophageal adenocarcinoma, often presenting as a progressive difficulty in swallowing solids and liquids.</t>
+          <t>Enlarged supraclavicular lymph nodes, particularly on the left side (Virchow's node), can indicate metastasis from esophageal adenocarcinoma.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Absence of abdominal tenderness</t>
+          <t>No palpable lymphadenopathy</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The absence of abdominal tenderness can indicate that there is no significant intra-abdominal pathology, which may argue against esophageal adenocarcinoma.</t>
+          <t>The absence of palpable lymph nodes, especially in the supraclavicular area, reduces the likelihood of metastatic esophageal adenocarcinoma.</t>
         </is>
       </c>
     </row>
@@ -964,61 +964,61 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cachexia, or muscle wasting, is frequently observed in patients with esophageal adenocarcinoma due to the cancer's metabolic demands and effects on nutrition.</t>
+          <t>Cachexia, or severe weight loss and muscle wasting, is often associated with advanced cancer, including esophageal adenocarcinoma.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Normal physical exam findings</t>
+          <t>Normal voice</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A normal physical exam with no significant findings may suggest that esophageal adenocarcinoma is not present.</t>
+          <t>A normal voice suggests that there is no involvement of the recurrent laryngeal nerve, which is less consistent with advanced esophageal adenocarcinoma.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Anemia</t>
+          <t>Dysphagia</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Anemia can occur in esophageal adenocarcinoma due to chronic blood loss from the tumor or nutritional deficiencies, making it a relevant finding.</t>
+          <t>Difficulty swallowing is a hallmark symptom of esophageal cancer, often due to tumor obstruction.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No signs of dehydration</t>
+          <t>No dysphagia</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The absence of dehydration can indicate adequate oral intake and nutrition, which is less common in patients with esophageal adenocarcinoma.</t>
+          <t>The absence of difficulty swallowing makes esophageal obstruction due to adenocarcinoma less likely.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Palpable lymphadenopathy</t>
+          <t>Hoarseness</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Palpable lymphadenopathy may indicate metastatic spread of esophageal adenocarcinoma, which is a common occurrence in advanced cases.</t>
+          <t>Hoarseness can occur if the cancer invades the recurrent laryngeal nerve, which is more common in advanced esophageal adenocarcinoma.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No palpable masses</t>
+          <t>Normal nutritional status</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The absence of palpable masses during a physical exam may suggest that there is no significant tumor burden, making esophageal adenocarcinoma less likely.</t>
+          <t>A normal nutritional status is less common in patients with esophageal adenocarcinoma, who often have nutritional deficiencies due to swallowing difficulties.</t>
         </is>
       </c>
     </row>
@@ -1066,110 +1066,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Endoscopic biopsy showing dysplastic cells</t>
+          <t>Biopsy showing adenocarcinoma</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dysplastic cells in an endoscopic biopsy are highly indicative of esophageal adenocarcinoma, as they represent precancerous changes that often progress to cancer.</t>
+          <t>A biopsy revealing adenocarcinoma is definitive evidence of esophageal adenocarcinoma.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal endoscopic findings</t>
+          <t>Normal endoscopy</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Normal findings during an endoscopy suggest that there are no visible lesions or abnormalities, making esophageal adenocarcinoma unlikely.</t>
+          <t>A normal endoscopy is strong evidence against esophageal adenocarcinoma as it would typically show visible abnormalities.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PET scan showing hypermetabolic lesions in the esophagus</t>
+          <t>Endoscopic ultrasound showing submucosal invasion</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hypermetabolic lesions on a PET scan are suggestive of malignancy, including esophageal adenocarcinoma, due to increased glucose metabolism in cancerous tissues.</t>
+          <t>Submucosal invasion on endoscopic ultrasound is highly specific for esophageal adenocarcinoma.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Negative biopsy results</t>
+          <t>Negative biopsy for malignancy</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A negative biopsy result indicates that no cancerous or dysplastic cells were found, which strongly argues against the presence of esophageal adenocarcinoma.</t>
+          <t>A biopsy that does not show malignancy is strong evidence against the presence of esophageal adenocarcinoma.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Elevated serum levels of carcinoembryonic antigen (CEA)</t>
+          <t>CT scan showing esophageal mass</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Elevated CEA levels can be associated with esophageal adenocarcinoma, as this tumor marker is often elevated in various malignancies.</t>
+          <t>A CT scan revealing an esophageal mass is suggestive of esophageal adenocarcinoma, especially if other causes are ruled out.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Normal serum levels of alkaline phosphatase</t>
+          <t>Normal CT scan</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Normal alkaline phosphatase levels suggest that there is no liver involvement or biliary obstruction, which can be associated with advanced esophageal cancer.</t>
+          <t>A normal CT scan of the esophagus is unlikely in the presence of esophageal adenocarcinoma.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CT scan revealing thickening of the esophageal wall</t>
+          <t>PET scan showing increased uptake in esophagus</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Thickening of the esophageal wall on a CT scan can indicate the presence of a tumor, which is consistent with esophageal adenocarcinoma.</t>
+          <t>Increased uptake in the esophagus on a PET scan is indicative of a malignant process like adenocarcinoma.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Unremarkable imaging studies</t>
+          <t>PET scan with no increased uptake</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Imaging studies that show no abnormalities in the esophagus or surrounding structures reduce the likelihood of esophageal adenocarcinoma.</t>
+          <t>A PET scan showing no increased uptake in the esophagus suggests the absence of a malignant process.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Endoscopic ultrasound showing lymphadenopathy</t>
+          <t>Barium swallow showing irregular esophageal contour</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Lymphadenopathy detected via endoscopic ultrasound can suggest metastatic spread of esophageal adenocarcinoma, supporting the diagnosis.</t>
+          <t>An irregular esophageal contour on a barium swallow can indicate a malignant process such as adenocarcinoma.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Negative results for HPV-related tests</t>
+          <t>Barium swallow showing normal esophageal contour</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Negative results for tests related to human papillomavirus (HPV) suggest a lower risk for esophageal adenocarcinoma, as certain HPV strains are associated with increased cancer risk.</t>
+          <t>A normal esophageal contour on a barium swallow is unlikely if esophageal adenocarcinoma is present.</t>
         </is>
       </c>
     </row>
